--- a/data/league_data/france/18/france_shot_creation.xlsx
+++ b/data/league_data/france/18/france_shot_creation.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{897CB128-35D9-EA43-8AB3-D660DBA6801D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877E74CB-0534-A24B-8A4D-AA38185B8634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -214,9 +214,6 @@
     <t>Rennes</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>br BRA</t>
   </si>
   <si>
@@ -1835,12 +1832,15 @@
   </si>
   <si>
     <t>Gabriel Dos Santos</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2695,14 +2695,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -2730,7 +2730,7 @@
     <col min="24" max="24" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4210,15 +4210,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>35</v>
@@ -4284,12 +4284,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>23</v>
@@ -4358,12 +4358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>23</v>
@@ -4432,15 +4432,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>35</v>
@@ -4506,15 +4506,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>62</v>
@@ -4580,12 +4580,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>23</v>
@@ -4594,7 +4594,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" s="2">
         <v>24</v>
@@ -4654,12 +4654,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>23</v>
@@ -4728,15 +4728,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -4802,12 +4802,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>23</v>
@@ -4876,15 +4876,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>20</v>
@@ -4950,12 +4950,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>23</v>
@@ -5024,12 +5024,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>55</v>
@@ -5098,15 +5098,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>37</v>
@@ -5172,12 +5172,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>23</v>
@@ -5186,7 +5186,7 @@
         <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2">
         <v>24</v>
@@ -5246,21 +5246,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F35" s="2">
         <v>24</v>
@@ -5320,12 +5320,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>23</v>
@@ -5394,15 +5394,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>50</v>
@@ -5468,12 +5468,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>23</v>
@@ -5542,12 +5542,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>23</v>
@@ -5556,7 +5556,7 @@
         <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2">
         <v>30</v>
@@ -5616,12 +5616,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>23</v>
@@ -5630,7 +5630,7 @@
         <v>62</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2">
         <v>27</v>
@@ -5690,12 +5690,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>23</v>
@@ -5764,21 +5764,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F42" s="2">
         <v>30</v>
@@ -5838,21 +5838,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2">
         <v>23</v>
@@ -5912,21 +5912,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2">
         <v>25</v>
@@ -5986,12 +5986,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>23</v>
@@ -6000,7 +6000,7 @@
         <v>35</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F45" s="2">
         <v>28</v>
@@ -6060,21 +6060,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2">
         <v>24</v>
@@ -6134,12 +6134,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>23</v>
@@ -6208,12 +6208,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>23</v>
@@ -6222,7 +6222,7 @@
         <v>35</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F48" s="2">
         <v>31</v>
@@ -6282,12 +6282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>23</v>
@@ -6296,7 +6296,7 @@
         <v>52</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F49" s="2">
         <v>24</v>
@@ -6356,15 +6356,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>20</v>
@@ -6430,15 +6430,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>35</v>
@@ -6504,21 +6504,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F52" s="2">
         <v>33</v>
@@ -6578,12 +6578,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>23</v>
@@ -6652,15 +6652,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>35</v>
@@ -6726,12 +6726,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>23</v>
@@ -6740,7 +6740,7 @@
         <v>62</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F55" s="2">
         <v>24</v>
@@ -6800,15 +6800,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>35</v>
@@ -6874,15 +6874,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>52</v>
@@ -6948,12 +6948,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>55</v>
@@ -7022,21 +7022,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2">
         <v>30</v>
@@ -7096,15 +7096,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>52</v>
@@ -7170,12 +7170,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>23</v>
@@ -7244,12 +7244,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>23</v>
@@ -7318,15 +7318,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>35</v>
@@ -7392,12 +7392,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>23</v>
@@ -7466,12 +7466,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>55</v>
@@ -7540,12 +7540,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>23</v>
@@ -7614,15 +7614,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>35</v>
@@ -7688,15 +7688,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>35</v>
@@ -7762,12 +7762,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>23</v>
@@ -7836,15 +7836,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>50</v>
@@ -7910,12 +7910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>23</v>
@@ -7984,12 +7984,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>23</v>
@@ -7998,7 +7998,7 @@
         <v>35</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2">
         <v>25</v>
@@ -8058,12 +8058,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>23</v>
@@ -8132,15 +8132,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>35</v>
@@ -8206,12 +8206,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>23</v>
@@ -8220,7 +8220,7 @@
         <v>20</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2">
         <v>32</v>
@@ -8280,18 +8280,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>33</v>
@@ -8354,12 +8354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>23</v>
@@ -8428,15 +8428,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>35</v>
@@ -8502,21 +8502,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F79" s="2">
         <v>26</v>
@@ -8576,12 +8576,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>23</v>
@@ -8650,12 +8650,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>23</v>
@@ -8664,7 +8664,7 @@
         <v>52</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F81" s="2">
         <v>20</v>
@@ -8724,12 +8724,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>23</v>
@@ -8798,12 +8798,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>23</v>
@@ -8812,7 +8812,7 @@
         <v>37</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F83" s="2">
         <v>29</v>
@@ -8872,12 +8872,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>23</v>
@@ -8886,7 +8886,7 @@
         <v>37</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F84" s="2">
         <v>22</v>
@@ -8946,21 +8946,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2">
         <v>30</v>
@@ -9020,12 +9020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>23</v>
@@ -9094,12 +9094,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>23</v>
@@ -9168,15 +9168,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>20</v>
@@ -9242,15 +9242,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>52</v>
@@ -9316,12 +9316,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>23</v>
@@ -9330,7 +9330,7 @@
         <v>35</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2">
         <v>27</v>
@@ -9390,12 +9390,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>55</v>
@@ -9464,21 +9464,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2">
         <v>24</v>
@@ -9538,15 +9538,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>35</v>
@@ -9612,21 +9612,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F94" s="2">
         <v>27</v>
@@ -9686,15 +9686,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>52</v>
@@ -9760,15 +9760,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>50</v>
@@ -9834,12 +9834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>55</v>
@@ -9848,7 +9848,7 @@
         <v>35</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2">
         <v>31</v>
@@ -9908,15 +9908,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>35</v>
@@ -9982,12 +9982,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>23</v>
@@ -10056,15 +10056,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>50</v>
@@ -10130,21 +10130,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2">
         <v>29</v>
@@ -10204,18 +10204,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>56</v>
@@ -10278,12 +10278,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>23</v>
@@ -10352,12 +10352,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>23</v>
@@ -10366,7 +10366,7 @@
         <v>35</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F104" s="2">
         <v>29</v>
@@ -10426,12 +10426,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>23</v>
@@ -10500,21 +10500,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F106" s="2">
         <v>21</v>
@@ -10574,12 +10574,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>23</v>
@@ -10648,15 +10648,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>35</v>
@@ -10722,12 +10722,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>23</v>
@@ -10796,15 +10796,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>35</v>
@@ -10870,12 +10870,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>23</v>
@@ -10884,7 +10884,7 @@
         <v>35</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F111" s="2">
         <v>21</v>
@@ -10944,12 +10944,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>23</v>
@@ -10958,7 +10958,7 @@
         <v>35</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F112" s="2">
         <v>25</v>
@@ -11018,15 +11018,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>35</v>
@@ -11092,15 +11092,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>52</v>
@@ -11166,12 +11166,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>23</v>
@@ -11180,7 +11180,7 @@
         <v>35</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F115" s="2">
         <v>25</v>
@@ -11240,18 +11240,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>56</v>
@@ -11314,12 +11314,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>23</v>
@@ -11388,12 +11388,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>23</v>
@@ -11402,7 +11402,7 @@
         <v>37</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F118" s="2">
         <v>22</v>
@@ -11462,12 +11462,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>23</v>
@@ -11536,12 +11536,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>23</v>
@@ -11550,7 +11550,7 @@
         <v>62</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F120" s="2">
         <v>30</v>
@@ -11610,12 +11610,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>23</v>
@@ -11684,15 +11684,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>35</v>
@@ -11758,15 +11758,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>50</v>
@@ -11832,12 +11832,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>23</v>
@@ -11906,15 +11906,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>35</v>
@@ -11980,15 +11980,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>37</v>
@@ -12054,15 +12054,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>52</v>
@@ -12128,15 +12128,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>62</v>
@@ -12202,15 +12202,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>50</v>
@@ -12276,12 +12276,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>23</v>
@@ -12290,7 +12290,7 @@
         <v>37</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F130" s="2">
         <v>27</v>
@@ -12350,21 +12350,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F131" s="2">
         <v>26</v>
@@ -12424,12 +12424,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>23</v>
@@ -12498,21 +12498,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F133" s="2">
         <v>23</v>
@@ -12572,12 +12572,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>23</v>
@@ -12586,7 +12586,7 @@
         <v>52</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F134" s="2">
         <v>20</v>
@@ -12646,15 +12646,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>47</v>
@@ -12720,15 +12720,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>37</v>
@@ -12794,12 +12794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>23</v>
@@ -12808,7 +12808,7 @@
         <v>62</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F137" s="2">
         <v>24</v>
@@ -12868,12 +12868,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>23</v>
@@ -12882,7 +12882,7 @@
         <v>35</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F138" s="2">
         <v>23</v>
@@ -12942,15 +12942,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>35</v>
@@ -13016,15 +13016,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>50</v>
@@ -13090,12 +13090,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>23</v>
@@ -13104,7 +13104,7 @@
         <v>37</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F141" s="2">
         <v>30</v>
@@ -13164,21 +13164,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F142" s="2">
         <v>30</v>
@@ -13238,12 +13238,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>23</v>
@@ -13252,7 +13252,7 @@
         <v>50</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F143" s="2">
         <v>27</v>
@@ -13312,21 +13312,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F144" s="2">
         <v>24</v>
@@ -13386,12 +13386,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>23</v>
@@ -13400,7 +13400,7 @@
         <v>37</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F145" s="2">
         <v>22</v>
@@ -13460,12 +13460,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>23</v>
@@ -13534,12 +13534,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>23</v>
@@ -13608,15 +13608,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>52</v>
@@ -13682,15 +13682,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>50</v>
@@ -13756,12 +13756,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>23</v>
@@ -13830,12 +13830,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>23</v>
@@ -13844,7 +13844,7 @@
         <v>35</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F151" s="2">
         <v>28</v>
@@ -13904,21 +13904,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F152" s="2">
         <v>32</v>
@@ -13978,21 +13978,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F153" s="2">
         <v>29</v>
@@ -14052,12 +14052,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>23</v>
@@ -14066,7 +14066,7 @@
         <v>35</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F154" s="2">
         <v>25</v>
@@ -14126,12 +14126,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>23</v>
@@ -14140,7 +14140,7 @@
         <v>50</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F155" s="2">
         <v>18</v>
@@ -14200,15 +14200,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>52</v>
@@ -14274,15 +14274,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>37</v>
@@ -14348,15 +14348,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>35</v>
@@ -14422,12 +14422,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>23</v>
@@ -14436,7 +14436,7 @@
         <v>35</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F159" s="2">
         <v>28</v>
@@ -14496,21 +14496,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F160" s="2">
         <v>34</v>
@@ -14570,12 +14570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>23</v>
@@ -14644,15 +14644,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>37</v>
@@ -14718,15 +14718,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>37</v>
@@ -14792,15 +14792,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>35</v>
@@ -14866,15 +14866,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>50</v>
@@ -14940,21 +14940,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F166" s="2">
         <v>23</v>
@@ -15014,15 +15014,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>52</v>
@@ -15088,15 +15088,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>52</v>
@@ -15162,12 +15162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>23</v>
@@ -15236,15 +15236,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>62</v>
@@ -15310,21 +15310,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F171" s="2">
         <v>27</v>
@@ -15384,15 +15384,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>35</v>
@@ -15458,21 +15458,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F173" s="2">
         <v>22</v>
@@ -15532,12 +15532,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>23</v>
@@ -15606,12 +15606,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>23</v>
@@ -15680,12 +15680,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>23</v>
@@ -15754,21 +15754,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F177" s="2">
         <v>21</v>
@@ -15828,15 +15828,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>35</v>
@@ -15902,15 +15902,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>52</v>
@@ -15976,12 +15976,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>23</v>
@@ -16050,21 +16050,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F181" s="2">
         <v>27</v>
@@ -16124,12 +16124,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>23</v>
@@ -16198,12 +16198,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>23</v>
@@ -16212,7 +16212,7 @@
         <v>62</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F183" s="2">
         <v>30</v>
@@ -16272,15 +16272,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>37</v>
@@ -16346,12 +16346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>23</v>
@@ -16420,12 +16420,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>23</v>
@@ -16494,15 +16494,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>62</v>
@@ -16568,15 +16568,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>52</v>
@@ -16642,15 +16642,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>52</v>
@@ -16716,15 +16716,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>52</v>
@@ -16790,12 +16790,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>23</v>
@@ -16864,12 +16864,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>23</v>
@@ -16938,15 +16938,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>35</v>
@@ -17012,15 +17012,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>35</v>
@@ -17086,15 +17086,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>35</v>
@@ -17160,21 +17160,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F196" s="2">
         <v>25</v>
@@ -17234,12 +17234,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>23</v>
@@ -17308,21 +17308,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F198" s="2">
         <v>25</v>
@@ -17382,21 +17382,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F199" s="2">
         <v>21</v>
@@ -17456,12 +17456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>23</v>
@@ -17530,12 +17530,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>23</v>
@@ -17544,7 +17544,7 @@
         <v>62</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F201" s="2">
         <v>31</v>
@@ -17604,18 +17604,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>30</v>
@@ -17678,21 +17678,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F203" s="2">
         <v>26</v>
@@ -17752,21 +17752,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F204" s="2">
         <v>27</v>
@@ -17826,21 +17826,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F205" s="2">
         <v>34</v>
@@ -17900,12 +17900,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>55</v>
@@ -17974,21 +17974,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F207" s="2">
         <v>24</v>
@@ -18048,21 +18048,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F208" s="2">
         <v>33</v>
@@ -18122,12 +18122,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>23</v>
@@ -18136,7 +18136,7 @@
         <v>52</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F209" s="2">
         <v>33</v>
@@ -18196,21 +18196,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F210" s="2">
         <v>23</v>
@@ -18270,12 +18270,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>23</v>
@@ -18284,7 +18284,7 @@
         <v>35</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F211" s="2">
         <v>24</v>
@@ -18344,15 +18344,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>35</v>
@@ -18418,12 +18418,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>23</v>
@@ -18492,12 +18492,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>23</v>
@@ -18566,21 +18566,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F215" s="2">
         <v>20</v>
@@ -18640,21 +18640,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F216" s="2">
         <v>23</v>
@@ -18714,12 +18714,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>23</v>
@@ -18728,7 +18728,7 @@
         <v>52</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F217" s="2">
         <v>20</v>
@@ -18788,21 +18788,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F218" s="2">
         <v>25</v>
@@ -18862,12 +18862,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>23</v>
@@ -18876,7 +18876,7 @@
         <v>20</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F219" s="2">
         <v>34</v>
@@ -18936,15 +18936,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>37</v>
@@ -19010,12 +19010,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>23</v>
@@ -19084,15 +19084,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>52</v>
@@ -19158,15 +19158,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>35</v>
@@ -19232,12 +19232,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>23</v>
@@ -19306,12 +19306,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>23</v>
@@ -19320,7 +19320,7 @@
         <v>52</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F225" s="2">
         <v>25</v>
@@ -19380,15 +19380,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>35</v>
@@ -19454,15 +19454,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>35</v>
@@ -19528,15 +19528,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>35</v>
@@ -19602,15 +19602,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>47</v>
@@ -19676,12 +19676,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>23</v>
@@ -19750,15 +19750,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>35</v>
@@ -19824,15 +19824,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>37</v>
@@ -19898,12 +19898,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>23</v>
@@ -19972,21 +19972,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F234" s="2">
         <v>25</v>
@@ -20046,15 +20046,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>35</v>
@@ -20120,12 +20120,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>23</v>
@@ -20194,18 +20194,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>56</v>
@@ -20268,15 +20268,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>37</v>
@@ -20342,15 +20342,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>37</v>
@@ -20416,12 +20416,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>23</v>
@@ -20490,18 +20490,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>48</v>
@@ -20564,21 +20564,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F242" s="2">
         <v>27</v>
@@ -20638,12 +20638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>23</v>
@@ -20652,7 +20652,7 @@
         <v>62</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F243" s="2">
         <v>20</v>
@@ -20712,12 +20712,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>23</v>
@@ -20726,7 +20726,7 @@
         <v>20</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F244" s="2">
         <v>25</v>
@@ -20786,12 +20786,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>23</v>
@@ -20860,15 +20860,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>35</v>
@@ -20934,15 +20934,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>37</v>
@@ -21008,12 +21008,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>23</v>
@@ -21082,15 +21082,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>35</v>
@@ -21156,12 +21156,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>23</v>
@@ -21230,15 +21230,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>37</v>
@@ -21304,12 +21304,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>23</v>
@@ -21378,15 +21378,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>52</v>
@@ -21452,12 +21452,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>23</v>
@@ -21526,21 +21526,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F255" s="2">
         <v>29</v>
@@ -21600,15 +21600,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>35</v>
@@ -21674,15 +21674,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>35</v>
@@ -21748,12 +21748,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>23</v>
@@ -21822,12 +21822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>23</v>
@@ -21896,15 +21896,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>47</v>
@@ -21970,12 +21970,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>23</v>
@@ -22044,12 +22044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>23</v>
@@ -22118,12 +22118,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>23</v>
@@ -22192,12 +22192,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>55</v>
@@ -22266,15 +22266,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>37</v>
@@ -22340,12 +22340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>23</v>
@@ -22354,7 +22354,7 @@
         <v>62</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F266" s="2">
         <v>30</v>
@@ -22414,12 +22414,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>23</v>
@@ -22428,7 +22428,7 @@
         <v>37</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F267" s="2">
         <v>19</v>
@@ -22488,12 +22488,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>23</v>
@@ -22502,7 +22502,7 @@
         <v>62</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F268" s="2">
         <v>40</v>
@@ -22562,21 +22562,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F269" s="2">
         <v>28</v>
@@ -22636,15 +22636,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>37</v>
@@ -22710,12 +22710,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>23</v>
@@ -22784,12 +22784,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>23</v>
@@ -22798,7 +22798,7 @@
         <v>35</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F272" s="2">
         <v>18</v>
@@ -22858,12 +22858,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>23</v>
@@ -22932,15 +22932,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>37</v>
@@ -23006,15 +23006,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>35</v>
@@ -23080,15 +23080,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>62</v>
@@ -23154,15 +23154,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>52</v>
@@ -23228,15 +23228,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>35</v>
@@ -23302,12 +23302,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>23</v>
@@ -23376,15 +23376,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>52</v>
@@ -23450,21 +23450,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F281" s="2">
         <v>26</v>
@@ -23524,15 +23524,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>35</v>
@@ -23598,12 +23598,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>23</v>
@@ -23612,7 +23612,7 @@
         <v>35</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F283" s="2">
         <v>24</v>
@@ -23672,15 +23672,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>52</v>
@@ -23746,12 +23746,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>23</v>
@@ -23820,15 +23820,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>35</v>
@@ -23894,12 +23894,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>23</v>
@@ -23968,15 +23968,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>37</v>
@@ -24042,15 +24042,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>50</v>
@@ -24116,21 +24116,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F290" s="2">
         <v>26</v>
@@ -24190,12 +24190,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>23</v>
@@ -24204,7 +24204,7 @@
         <v>35</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F291" s="2">
         <v>33</v>
@@ -24264,12 +24264,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>23</v>
@@ -24278,7 +24278,7 @@
         <v>20</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F292" s="2">
         <v>26</v>
@@ -24338,12 +24338,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>23</v>
@@ -24412,15 +24412,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>35</v>
@@ -24486,21 +24486,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F295" s="2">
         <v>34</v>
@@ -24560,15 +24560,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>50</v>
@@ -24634,12 +24634,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>23</v>
@@ -24708,12 +24708,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>23</v>
@@ -24782,15 +24782,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>37</v>
@@ -24856,21 +24856,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F300" s="2">
         <v>24</v>
@@ -24930,15 +24930,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>50</v>
@@ -25004,15 +25004,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>35</v>
@@ -25078,21 +25078,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F303" s="2">
         <v>28</v>
@@ -25152,15 +25152,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>35</v>
@@ -25226,15 +25226,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>50</v>
@@ -25300,15 +25300,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>37</v>
@@ -25374,12 +25374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>23</v>
@@ -25448,15 +25448,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>52</v>
@@ -25522,15 +25522,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>37</v>
@@ -25596,12 +25596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>23</v>
@@ -25610,7 +25610,7 @@
         <v>50</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F310" s="2">
         <v>22</v>
@@ -25670,12 +25670,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>19</v>
@@ -25744,15 +25744,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>52</v>
@@ -25818,12 +25818,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>23</v>
@@ -25892,12 +25892,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>23</v>
@@ -25906,7 +25906,7 @@
         <v>37</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F314" s="2">
         <v>22</v>
@@ -25966,15 +25966,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>52</v>
@@ -26040,18 +26040,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>63</v>
@@ -26114,15 +26114,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>37</v>
@@ -26188,15 +26188,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>52</v>
@@ -26262,18 +26262,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>38</v>
@@ -26336,12 +26336,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>23</v>
@@ -26410,21 +26410,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F321" s="2">
         <v>25</v>
@@ -26484,12 +26484,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>23</v>
@@ -26558,12 +26558,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>23</v>
@@ -26572,7 +26572,7 @@
         <v>37</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F323" s="2">
         <v>22</v>
@@ -26632,15 +26632,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>35</v>
@@ -26706,15 +26706,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>50</v>
@@ -26780,12 +26780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>23</v>
@@ -26854,21 +26854,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F327" s="2">
         <v>25</v>
@@ -26928,12 +26928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>23</v>
@@ -26942,7 +26942,7 @@
         <v>52</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F328" s="2">
         <v>34</v>
@@ -27002,12 +27002,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>40</v>
@@ -27076,21 +27076,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F330" s="2">
         <v>27</v>
@@ -27150,21 +27150,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F331" s="2">
         <v>21</v>
@@ -27224,12 +27224,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>23</v>
@@ -27238,7 +27238,7 @@
         <v>20</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F332" s="2">
         <v>23</v>
@@ -27298,15 +27298,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>62</v>
@@ -27372,15 +27372,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>52</v>
@@ -27446,15 +27446,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>52</v>
@@ -27520,21 +27520,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F336" s="2">
         <v>29</v>
@@ -27594,12 +27594,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>23</v>
@@ -27668,21 +27668,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F338" s="2">
         <v>23</v>
@@ -27742,21 +27742,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F339" s="2">
         <v>20</v>
@@ -27816,12 +27816,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>23</v>
@@ -27890,15 +27890,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>62</v>
@@ -27964,12 +27964,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>23</v>
@@ -28038,15 +28038,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>47</v>
@@ -28112,15 +28112,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>62</v>
@@ -28186,15 +28186,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>62</v>
@@ -28260,18 +28260,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>38</v>
@@ -28334,21 +28334,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F347" s="2">
         <v>21</v>
@@ -28408,12 +28408,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>23</v>
@@ -28482,12 +28482,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>23</v>
@@ -28496,7 +28496,7 @@
         <v>37</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F349" s="2">
         <v>30</v>
@@ -28556,12 +28556,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>23</v>
@@ -28570,7 +28570,7 @@
         <v>37</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F350" s="2">
         <v>21</v>
@@ -28630,15 +28630,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>37</v>
@@ -28704,15 +28704,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C352" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>52</v>
@@ -28778,12 +28778,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>19</v>
@@ -28852,15 +28852,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>50</v>
@@ -28926,15 +28926,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>50</v>
@@ -29000,15 +29000,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>35</v>
@@ -29074,15 +29074,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>50</v>
@@ -29148,12 +29148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>23</v>
@@ -29222,12 +29222,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>23</v>
@@ -29296,12 +29296,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>23</v>
@@ -29310,7 +29310,7 @@
         <v>20</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F360" s="2">
         <v>34</v>
@@ -29370,15 +29370,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>62</v>
@@ -29444,12 +29444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>23</v>
@@ -29518,12 +29518,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>23</v>
@@ -29592,18 +29592,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>45</v>
@@ -29666,15 +29666,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>35</v>
@@ -29740,15 +29740,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>47</v>
@@ -29814,18 +29814,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>60</v>
@@ -29888,15 +29888,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>62</v>
@@ -29962,12 +29962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>23</v>
@@ -29976,7 +29976,7 @@
         <v>52</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F369" s="2">
         <v>20</v>
@@ -30036,12 +30036,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>23</v>
@@ -30110,12 +30110,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>55</v>
@@ -30184,21 +30184,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F372" s="2">
         <v>26</v>
@@ -30258,18 +30258,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>48</v>
@@ -30332,15 +30332,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>52</v>
@@ -30406,12 +30406,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>23</v>
@@ -30480,15 +30480,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>52</v>
@@ -30554,12 +30554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>23</v>
@@ -30568,7 +30568,7 @@
         <v>52</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F377" s="2">
         <v>19</v>
@@ -30628,21 +30628,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F378" s="2">
         <v>21</v>
@@ -30702,18 +30702,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>30</v>
@@ -30776,15 +30776,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>47</v>
@@ -30850,21 +30850,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F381" s="2">
         <v>20</v>
@@ -30924,15 +30924,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>37</v>
@@ -30998,12 +30998,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>23</v>
@@ -31012,7 +31012,7 @@
         <v>37</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F383" s="2">
         <v>32</v>
@@ -31072,12 +31072,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>23</v>
@@ -31086,7 +31086,7 @@
         <v>20</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F384" s="2">
         <v>25</v>
@@ -31146,12 +31146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>23</v>
@@ -31220,12 +31220,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>23</v>
@@ -31294,15 +31294,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>52</v>
@@ -31368,12 +31368,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>23</v>
@@ -31442,15 +31442,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>62</v>
@@ -31516,12 +31516,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>23</v>
@@ -31590,12 +31590,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>23</v>
@@ -31664,15 +31664,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>52</v>
@@ -31738,12 +31738,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>23</v>
@@ -31812,21 +31812,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F394" s="2">
         <v>27</v>
@@ -31886,12 +31886,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>23</v>
@@ -31900,7 +31900,7 @@
         <v>62</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F395" s="2">
         <v>22</v>
@@ -31960,15 +31960,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>35</v>
@@ -32034,15 +32034,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>52</v>
@@ -32108,21 +32108,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C398" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="C398" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F398" s="2">
         <v>24</v>
@@ -32182,21 +32182,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F399" s="2">
         <v>22</v>
@@ -32256,12 +32256,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>23</v>
@@ -32270,7 +32270,7 @@
         <v>47</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F400" s="2">
         <v>17</v>
@@ -32330,12 +32330,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>23</v>
@@ -32404,12 +32404,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>23</v>
@@ -32418,7 +32418,7 @@
         <v>62</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F402" s="2">
         <v>27</v>
@@ -32478,12 +32478,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>44</v>
@@ -32552,12 +32552,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>23</v>
@@ -32566,7 +32566,7 @@
         <v>62</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F404" s="2">
         <v>19</v>
@@ -32626,21 +32626,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F405" s="2">
         <v>27</v>
@@ -32700,15 +32700,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>37</v>
@@ -32774,15 +32774,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>52</v>
@@ -32848,12 +32848,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>23</v>
@@ -32922,15 +32922,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>62</v>
@@ -32996,15 +32996,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C410" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>50</v>
@@ -33070,12 +33070,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>23</v>
@@ -33144,21 +33144,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F412" s="2">
         <v>33</v>
@@ -33218,15 +33218,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>50</v>
@@ -33292,15 +33292,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>62</v>
@@ -33366,15 +33366,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>35</v>
@@ -33440,12 +33440,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>23</v>
@@ -33514,15 +33514,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>20</v>
@@ -33588,15 +33588,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>52</v>
@@ -33662,21 +33662,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F419" s="2">
         <v>27</v>
@@ -33736,12 +33736,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>23</v>
@@ -33810,12 +33810,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>23</v>
@@ -33824,7 +33824,7 @@
         <v>35</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F421" s="2">
         <v>36</v>
@@ -33884,12 +33884,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>23</v>
@@ -33898,7 +33898,7 @@
         <v>47</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F422" s="2">
         <v>27</v>
@@ -33958,21 +33958,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F423" s="2">
         <v>33</v>
@@ -34032,15 +34032,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D424" s="2" t="s">
         <v>50</v>
@@ -34106,15 +34106,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D425" s="2" t="s">
         <v>35</v>
@@ -34180,12 +34180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>23</v>
@@ -34254,15 +34254,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D427" s="2" t="s">
         <v>35</v>
@@ -34328,12 +34328,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>23</v>
@@ -34402,12 +34402,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>19</v>
@@ -34476,15 +34476,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>20</v>
@@ -34550,12 +34550,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>23</v>
@@ -34624,12 +34624,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>23</v>
@@ -34698,12 +34698,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>23</v>
@@ -34772,12 +34772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>23</v>
@@ -34846,18 +34846,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>24</v>
@@ -34920,12 +34920,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>23</v>
@@ -34994,12 +34994,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>23</v>
@@ -35068,12 +35068,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>23</v>
@@ -35082,7 +35082,7 @@
         <v>20</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F438" s="2">
         <v>33</v>
@@ -35142,15 +35142,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D439" s="2" t="s">
         <v>20</v>
@@ -35216,12 +35216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>23</v>
@@ -35290,12 +35290,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>23</v>
@@ -35364,12 +35364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>23</v>
@@ -35378,7 +35378,7 @@
         <v>50</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F442" s="2">
         <v>20</v>
@@ -35438,15 +35438,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D443" s="2" t="s">
         <v>35</v>
@@ -35512,21 +35512,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D444" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F444" s="2">
         <v>23</v>
@@ -35586,15 +35586,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>20</v>
@@ -35660,12 +35660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>23</v>
@@ -35674,7 +35674,7 @@
         <v>52</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F446" s="2">
         <v>19</v>
@@ -35734,15 +35734,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="D447" s="2" t="s">
         <v>35</v>
@@ -35808,12 +35808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>23</v>
@@ -35882,15 +35882,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D449" s="2" t="s">
         <v>20</v>
@@ -35956,12 +35956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>23</v>
@@ -36030,18 +36030,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>63</v>
@@ -36104,15 +36104,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C452" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="D452" s="2" t="s">
         <v>52</v>
@@ -36178,12 +36178,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>23</v>
@@ -36252,15 +36252,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D454" s="2" t="s">
         <v>37</v>
@@ -36326,15 +36326,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D455" s="2" t="s">
         <v>52</v>
@@ -36400,15 +36400,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D456" s="2" t="s">
         <v>47</v>
@@ -36474,15 +36474,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D457" s="2" t="s">
         <v>37</v>
@@ -36548,12 +36548,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>23</v>
@@ -36622,15 +36622,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D459" s="2" t="s">
         <v>37</v>
@@ -36696,15 +36696,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D460" s="2" t="s">
         <v>62</v>
@@ -36770,12 +36770,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>23</v>
@@ -36844,15 +36844,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D462" s="2" t="s">
         <v>52</v>
@@ -36918,12 +36918,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>23</v>
@@ -36932,7 +36932,7 @@
         <v>52</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F463" s="2">
         <v>19</v>
@@ -36992,12 +36992,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>23</v>
@@ -37066,12 +37066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>23</v>
@@ -37140,15 +37140,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D466" s="2" t="s">
         <v>37</v>
@@ -37214,12 +37214,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>23</v>
@@ -37228,7 +37228,7 @@
         <v>37</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F467" s="2">
         <v>28</v>
@@ -37288,15 +37288,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D468" s="2" t="s">
         <v>47</v>
@@ -37362,12 +37362,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>23</v>
@@ -37376,7 +37376,7 @@
         <v>37</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F469" s="2">
         <v>20</v>
@@ -37436,15 +37436,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D470" s="2" t="s">
         <v>35</v>
@@ -37510,21 +37510,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F471" s="2">
         <v>27</v>
@@ -37584,12 +37584,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>23</v>
@@ -37658,18 +37658,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>48</v>
@@ -37732,12 +37732,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>23</v>
@@ -37806,15 +37806,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D475" s="2" t="s">
         <v>50</v>
@@ -37880,15 +37880,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C476" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="D476" s="2" t="s">
         <v>62</v>
@@ -37954,21 +37954,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F477" s="2">
         <v>23</v>
@@ -38028,21 +38028,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C478" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="D478" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F478" s="2">
         <v>17</v>
@@ -38102,12 +38102,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>23</v>
@@ -38176,18 +38176,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>63</v>
@@ -38250,12 +38250,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>23</v>
@@ -38324,18 +38324,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>41</v>
@@ -38398,15 +38398,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D483" s="2" t="s">
         <v>52</v>
@@ -38472,12 +38472,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>23</v>
@@ -38486,7 +38486,7 @@
         <v>52</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F484" s="2">
         <v>27</v>
@@ -38546,12 +38546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>23</v>
@@ -38620,12 +38620,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>23</v>
@@ -38694,12 +38694,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>23</v>
@@ -38768,12 +38768,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>23</v>
@@ -38842,12 +38842,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>23</v>
@@ -38916,12 +38916,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>23</v>
@@ -38930,7 +38930,7 @@
         <v>62</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F490" s="2">
         <v>25</v>
@@ -38990,15 +38990,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D491" s="2" t="s">
         <v>35</v>
@@ -39064,21 +39064,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C492" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="C492" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="D492" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F492" s="2">
         <v>31</v>
@@ -39138,15 +39138,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D493" s="2" t="s">
         <v>52</v>
@@ -39212,12 +39212,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>23</v>
@@ -39286,15 +39286,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D495" s="2" t="s">
         <v>20</v>
@@ -39360,12 +39360,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>23</v>
@@ -39434,15 +39434,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D497" s="2" t="s">
         <v>35</v>
@@ -39508,15 +39508,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D498" s="2" t="s">
         <v>52</v>
@@ -39582,21 +39582,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D499" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F499" s="2">
         <v>22</v>
@@ -39656,21 +39656,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F500" s="2">
         <v>19</v>
@@ -39730,7 +39730,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:24" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/france/18/france_shot_creation.xlsx
+++ b/data/league_data/france/18/france_shot_creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877E74CB-0534-A24B-8A4D-AA38185B8634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FC2581-BB04-804B-A580-B8968B136624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,9 +862,6 @@
     <t>ht HAI</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Neymar</t>
   </si>
   <si>
@@ -1835,6 +1832,9 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
   </si>
 </sst>
 </file>
@@ -2698,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4215,7 +4215,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>64</v>
@@ -17091,7 +17091,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>280</v>
+        <v>604</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>64</v>
@@ -17165,7 +17165,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>64</v>
@@ -17239,7 +17239,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>23</v>
@@ -17313,7 +17313,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>218</v>
@@ -17387,7 +17387,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>89</v>
@@ -17461,7 +17461,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>23</v>
@@ -17535,7 +17535,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>23</v>
@@ -17609,7 +17609,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>64</v>
@@ -17683,7 +17683,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>247</v>
@@ -17757,10 +17757,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>35</v>
@@ -17831,7 +17831,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>68</v>
@@ -17905,7 +17905,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>55</v>
@@ -17979,7 +17979,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>205</v>
@@ -18053,10 +18053,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>35</v>
@@ -18127,7 +18127,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>23</v>
@@ -18201,10 +18201,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>62</v>
@@ -18275,7 +18275,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>23</v>
@@ -18349,10 +18349,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>35</v>
@@ -18423,7 +18423,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>23</v>
@@ -18497,7 +18497,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>23</v>
@@ -18571,7 +18571,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>68</v>
@@ -18645,7 +18645,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>85</v>
@@ -18719,7 +18719,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>23</v>
@@ -18793,7 +18793,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>85</v>
@@ -18867,7 +18867,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>23</v>
@@ -18941,7 +18941,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>89</v>
@@ -19015,7 +19015,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>23</v>
@@ -19089,7 +19089,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>157</v>
@@ -19163,7 +19163,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>68</v>
@@ -19237,7 +19237,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>23</v>
@@ -19311,7 +19311,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>23</v>
@@ -19385,7 +19385,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>214</v>
@@ -19459,7 +19459,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>157</v>
@@ -19533,7 +19533,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>205</v>
@@ -19607,7 +19607,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>218</v>
@@ -19681,7 +19681,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>23</v>
@@ -19755,7 +19755,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>68</v>
@@ -19829,7 +19829,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>99</v>
@@ -19903,7 +19903,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>23</v>
@@ -19977,7 +19977,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>235</v>
@@ -20051,7 +20051,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>173</v>
@@ -20125,7 +20125,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>23</v>
@@ -20199,7 +20199,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>101</v>
@@ -20273,7 +20273,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>254</v>
@@ -20347,7 +20347,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>235</v>
@@ -20421,7 +20421,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>23</v>
@@ -20495,7 +20495,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>218</v>
@@ -20569,7 +20569,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>99</v>
@@ -20643,7 +20643,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>23</v>
@@ -20717,7 +20717,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>23</v>
@@ -20791,7 +20791,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>23</v>
@@ -20865,7 +20865,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>85</v>
@@ -20939,7 +20939,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>64</v>
@@ -21013,7 +21013,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>23</v>
@@ -21087,10 +21087,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>35</v>
@@ -21161,7 +21161,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>23</v>
@@ -21235,7 +21235,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>64</v>
@@ -21309,7 +21309,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>23</v>
@@ -21383,7 +21383,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>68</v>
@@ -21457,7 +21457,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>23</v>
@@ -21531,7 +21531,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>195</v>
@@ -21605,10 +21605,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>35</v>
@@ -21679,10 +21679,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>35</v>
@@ -21753,7 +21753,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>23</v>
@@ -21827,7 +21827,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>23</v>
@@ -21901,10 +21901,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>47</v>
@@ -21975,7 +21975,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>23</v>
@@ -22049,7 +22049,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>23</v>
@@ -22123,7 +22123,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>23</v>
@@ -22197,7 +22197,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>55</v>
@@ -22271,7 +22271,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>68</v>
@@ -22345,7 +22345,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>23</v>
@@ -22419,7 +22419,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>23</v>
@@ -22493,7 +22493,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>23</v>
@@ -22567,7 +22567,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>89</v>
@@ -22641,7 +22641,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>68</v>
@@ -22715,7 +22715,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>23</v>
@@ -22789,7 +22789,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>23</v>
@@ -22863,7 +22863,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>23</v>
@@ -22937,10 +22937,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>37</v>
@@ -23011,7 +23011,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>64</v>
@@ -23085,7 +23085,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>173</v>
@@ -23159,10 +23159,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>52</v>
@@ -23233,7 +23233,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>64</v>
@@ -23307,7 +23307,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>23</v>
@@ -23381,7 +23381,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>99</v>
@@ -23455,7 +23455,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>225</v>
@@ -23529,7 +23529,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>101</v>
@@ -23603,7 +23603,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>23</v>
@@ -23677,7 +23677,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>70</v>
@@ -23751,7 +23751,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>23</v>
@@ -23825,10 +23825,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>35</v>
@@ -23899,7 +23899,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>23</v>
@@ -23973,7 +23973,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>195</v>
@@ -24047,7 +24047,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>237</v>
@@ -24121,7 +24121,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>85</v>
@@ -24195,7 +24195,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>23</v>
@@ -24269,7 +24269,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>23</v>
@@ -24343,7 +24343,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>23</v>
@@ -24417,10 +24417,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>35</v>
@@ -24491,7 +24491,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>205</v>
@@ -24565,7 +24565,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>173</v>
@@ -24639,7 +24639,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>23</v>
@@ -24713,7 +24713,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>23</v>
@@ -24787,7 +24787,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>235</v>
@@ -24861,10 +24861,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>35</v>
@@ -24935,7 +24935,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>89</v>
@@ -25009,7 +25009,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>85</v>
@@ -25083,10 +25083,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>37</v>
@@ -25157,10 +25157,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>35</v>
@@ -25231,10 +25231,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>50</v>
@@ -25305,7 +25305,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>77</v>
@@ -25379,7 +25379,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>23</v>
@@ -25453,7 +25453,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>227</v>
@@ -25527,7 +25527,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>237</v>
@@ -25601,7 +25601,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>23</v>
@@ -25675,7 +25675,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>19</v>
@@ -25749,7 +25749,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>68</v>
@@ -25823,7 +25823,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>23</v>
@@ -25897,7 +25897,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>23</v>
@@ -25971,7 +25971,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>195</v>
@@ -26045,7 +26045,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>195</v>
@@ -26119,7 +26119,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>112</v>
@@ -26193,7 +26193,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>218</v>
@@ -26267,7 +26267,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>85</v>
@@ -26341,7 +26341,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>23</v>
@@ -26415,7 +26415,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>68</v>
@@ -26489,7 +26489,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>23</v>
@@ -26563,7 +26563,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>23</v>
@@ -26637,7 +26637,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>99</v>
@@ -26711,7 +26711,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>68</v>
@@ -26785,7 +26785,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>23</v>
@@ -26859,7 +26859,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>195</v>
@@ -26933,7 +26933,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>23</v>
@@ -27007,7 +27007,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>40</v>
@@ -27081,10 +27081,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>35</v>
@@ -27155,7 +27155,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>105</v>
@@ -27229,7 +27229,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>23</v>
@@ -27303,10 +27303,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>62</v>
@@ -27377,7 +27377,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>279</v>
@@ -27451,7 +27451,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>237</v>
@@ -27525,10 +27525,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>50</v>
@@ -27599,7 +27599,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>23</v>
@@ -27673,7 +27673,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>85</v>
@@ -27747,7 +27747,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>81</v>
@@ -27821,7 +27821,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>23</v>
@@ -27895,7 +27895,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>89</v>
@@ -27969,7 +27969,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>23</v>
@@ -28043,7 +28043,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>214</v>
@@ -28117,7 +28117,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>99</v>
@@ -28191,7 +28191,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>68</v>
@@ -28265,10 +28265,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>96</v>
@@ -28339,7 +28339,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>101</v>
@@ -28413,7 +28413,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>23</v>
@@ -28487,7 +28487,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>23</v>
@@ -28561,7 +28561,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>23</v>
@@ -28635,7 +28635,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>151</v>
@@ -28709,10 +28709,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C352" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>52</v>
@@ -28783,7 +28783,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>19</v>
@@ -28857,7 +28857,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>68</v>
@@ -28931,7 +28931,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>99</v>
@@ -29005,10 +29005,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>35</v>
@@ -29079,10 +29079,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>50</v>
@@ -29153,7 +29153,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>23</v>
@@ -29227,7 +29227,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>23</v>
@@ -29301,7 +29301,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>23</v>
@@ -29375,7 +29375,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>214</v>
@@ -29449,7 +29449,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>23</v>
@@ -29523,7 +29523,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>23</v>
@@ -29597,7 +29597,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>23</v>
@@ -29671,10 +29671,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>35</v>
@@ -29745,7 +29745,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>99</v>
@@ -29819,7 +29819,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>99</v>
@@ -29893,7 +29893,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>254</v>
@@ -29967,7 +29967,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>23</v>
@@ -30041,7 +30041,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>23</v>
@@ -30115,7 +30115,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>55</v>
@@ -30189,7 +30189,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>165</v>
@@ -30263,10 +30263,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>96</v>
@@ -30337,7 +30337,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>235</v>
@@ -30411,7 +30411,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>23</v>
@@ -30485,7 +30485,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>64</v>
@@ -30559,7 +30559,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>23</v>
@@ -30633,7 +30633,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>68</v>
@@ -30707,7 +30707,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>23</v>
@@ -30781,10 +30781,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>47</v>
@@ -30855,7 +30855,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>23</v>
@@ -30929,7 +30929,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>85</v>
@@ -31003,7 +31003,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>23</v>
@@ -31077,7 +31077,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>23</v>
@@ -31151,7 +31151,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>23</v>
@@ -31225,7 +31225,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>23</v>
@@ -31299,7 +31299,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>70</v>
@@ -31373,7 +31373,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>23</v>
@@ -31447,7 +31447,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>64</v>
@@ -31521,7 +31521,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>23</v>
@@ -31595,7 +31595,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>23</v>
@@ -31669,7 +31669,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>85</v>
@@ -31743,7 +31743,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>23</v>
@@ -31817,7 +31817,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>81</v>
@@ -31891,7 +31891,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>23</v>
@@ -31965,7 +31965,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>68</v>
@@ -32039,7 +32039,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>68</v>
@@ -32113,10 +32113,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C398" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="C398" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>35</v>
@@ -32187,7 +32187,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>235</v>
@@ -32261,7 +32261,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>23</v>
@@ -32335,7 +32335,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>23</v>
@@ -32409,7 +32409,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>23</v>
@@ -32483,7 +32483,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>44</v>
@@ -32557,7 +32557,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>23</v>
@@ -32631,7 +32631,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>195</v>
@@ -32705,7 +32705,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>70</v>
@@ -32779,7 +32779,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>89</v>
@@ -32853,7 +32853,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>23</v>
@@ -32927,7 +32927,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>70</v>
@@ -33001,10 +33001,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C410" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>50</v>
@@ -33075,7 +33075,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>23</v>
@@ -33149,7 +33149,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>157</v>
@@ -33223,7 +33223,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>70</v>
@@ -33297,10 +33297,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>62</v>
@@ -33371,10 +33371,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>35</v>
@@ -33445,7 +33445,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>23</v>
@@ -33519,7 +33519,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>173</v>
@@ -33593,7 +33593,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>243</v>
@@ -33667,10 +33667,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>20</v>
@@ -33741,7 +33741,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>23</v>
@@ -33815,7 +33815,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>23</v>
@@ -33889,7 +33889,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>23</v>
@@ -33963,7 +33963,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>81</v>
@@ -34037,7 +34037,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>101</v>
@@ -34111,10 +34111,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D425" s="2" t="s">
         <v>35</v>
@@ -34185,7 +34185,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>23</v>
@@ -34259,7 +34259,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>218</v>
@@ -34333,7 +34333,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>23</v>
@@ -34407,7 +34407,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>19</v>
@@ -34481,10 +34481,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>20</v>
@@ -34555,7 +34555,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>23</v>
@@ -34629,7 +34629,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>23</v>
@@ -34703,7 +34703,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>23</v>
@@ -34851,7 +34851,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>23</v>
@@ -34925,7 +34925,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>23</v>
@@ -34999,7 +34999,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>23</v>
@@ -35073,7 +35073,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>23</v>
@@ -35147,7 +35147,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>68</v>
@@ -35221,7 +35221,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>23</v>
@@ -35295,7 +35295,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>23</v>
@@ -35369,7 +35369,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>23</v>
@@ -35443,7 +35443,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>157</v>
@@ -35517,7 +35517,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>68</v>
@@ -35591,7 +35591,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>68</v>
@@ -35665,7 +35665,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>23</v>
@@ -35739,10 +35739,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="D447" s="2" t="s">
         <v>35</v>
@@ -35887,10 +35887,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D449" s="2" t="s">
         <v>20</v>
@@ -35961,7 +35961,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>23</v>
@@ -36035,7 +36035,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>55</v>
@@ -36109,10 +36109,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C452" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="D452" s="2" t="s">
         <v>52</v>
@@ -36183,7 +36183,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>23</v>
@@ -36257,10 +36257,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D454" s="2" t="s">
         <v>37</v>
@@ -36331,7 +36331,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>214</v>
@@ -36405,7 +36405,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>101</v>
@@ -36479,7 +36479,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>85</v>
@@ -36553,7 +36553,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>23</v>
@@ -36627,10 +36627,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D459" s="2" t="s">
         <v>37</v>
@@ -36701,7 +36701,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>101</v>
@@ -36775,7 +36775,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>23</v>
@@ -36849,7 +36849,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>195</v>
@@ -36923,7 +36923,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>23</v>
@@ -36997,7 +36997,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>23</v>
@@ -37071,7 +37071,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>23</v>
@@ -37145,10 +37145,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D466" s="2" t="s">
         <v>37</v>
@@ -37219,7 +37219,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>23</v>
@@ -37293,7 +37293,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>214</v>
@@ -37367,7 +37367,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>23</v>
@@ -37441,7 +37441,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>247</v>
@@ -37515,7 +37515,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>68</v>
@@ -37589,7 +37589,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>23</v>
@@ -37663,7 +37663,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>23</v>
@@ -37737,7 +37737,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>23</v>
@@ -37811,7 +37811,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>89</v>
@@ -37885,10 +37885,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C476" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="D476" s="2" t="s">
         <v>62</v>
@@ -37959,7 +37959,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>99</v>
@@ -38033,10 +38033,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C478" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="D478" s="2" t="s">
         <v>50</v>
@@ -38107,7 +38107,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>23</v>
@@ -38181,13 +38181,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>63</v>
@@ -38255,7 +38255,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>23</v>
@@ -38329,10 +38329,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D482" s="2" t="s">
         <v>141</v>
@@ -38403,7 +38403,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>247</v>
@@ -38477,7 +38477,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>23</v>
@@ -38551,7 +38551,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>23</v>
@@ -38625,7 +38625,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>23</v>
@@ -38699,7 +38699,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>23</v>
@@ -38773,7 +38773,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>23</v>
@@ -38847,7 +38847,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>23</v>
@@ -38921,7 +38921,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>23</v>
@@ -38995,7 +38995,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>218</v>
@@ -39069,10 +39069,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C492" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="C492" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="D492" s="2" t="s">
         <v>35</v>
@@ -39143,7 +39143,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>235</v>
@@ -39217,7 +39217,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>23</v>
@@ -39291,7 +39291,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>195</v>
@@ -39365,7 +39365,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>23</v>
@@ -39439,7 +39439,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>70</v>
@@ -39513,7 +39513,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>64</v>
@@ -39587,7 +39587,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>64</v>
@@ -39661,7 +39661,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>64</v>
